--- a/Administrativas/Directorio_SOAPI_2019.xlsx
+++ b/Administrativas/Directorio_SOAPI_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Administrativas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3980213E-7756-4783-9D02-BDFCE192B4E7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF6FF1A-9A30-4B92-9EF0-D915ED6C7109}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio_SOAPI_2019" sheetId="1" r:id="rId1"/>
@@ -2687,12 +2687,6 @@
     <t>Jose Antonio Brochero Mendoza &lt;Jose.Brochero@icbf.gov.co&gt;</t>
   </si>
   <si>
-    <t>Andres Mejia Pizano &lt;Andres.Mejia@icbf.gov.co&gt;</t>
-  </si>
-  <si>
-    <t>ANDRES MEJIA PIZANO</t>
-  </si>
-  <si>
     <t>Martha Lucia Sepulveda Bermonth &lt;Martha.Sepulveda@icbf.gov.co&gt;</t>
   </si>
   <si>
@@ -3637,6 +3631,12 @@
   </si>
   <si>
     <t>PAOLA ANDREA ARCE HURTADO</t>
+  </si>
+  <si>
+    <t>BENJAMIN RICARDO COLLANTE</t>
+  </si>
+  <si>
+    <t>benjamin.collante@icbf.gov.co</t>
   </si>
 </sst>
 </file>
@@ -4328,7 +4328,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4764,6 +4764,7 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -5087,36 +5088,36 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="52" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.125" customWidth="1"/>
-    <col min="11" max="11" width="59.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="58.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.375" customWidth="1"/>
-    <col min="14" max="14" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="49.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="45.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="55.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="54.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="56.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.140625" customWidth="1"/>
+    <col min="11" max="11" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="14" max="14" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" thickBot="1">
@@ -5134,7 +5135,7 @@
       <c r="H1" s="140"/>
       <c r="I1" s="141"/>
       <c r="J1" s="142" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="K1" s="143"/>
       <c r="L1" s="143"/>
@@ -5187,16 +5188,16 @@
         <v>249</v>
       </c>
       <c r="J2" s="126" t="s">
+        <v>948</v>
+      </c>
+      <c r="K2" s="126" t="s">
+        <v>949</v>
+      </c>
+      <c r="L2" s="126" t="s">
         <v>950</v>
       </c>
-      <c r="K2" s="126" t="s">
+      <c r="M2" s="126" t="s">
         <v>951</v>
-      </c>
-      <c r="L2" s="126" t="s">
-        <v>952</v>
-      </c>
-      <c r="M2" s="126" t="s">
-        <v>953</v>
       </c>
       <c r="N2" s="127" t="s">
         <v>246</v>
@@ -5264,10 +5265,10 @@
         <v>893010</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="L3" s="7">
         <v>3143404503</v>
@@ -5288,10 +5289,10 @@
         <v>893010</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="T3" s="132">
         <v>3115195108</v>
@@ -5341,10 +5342,10 @@
         <v>400041</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="L4" s="7">
         <v>3008592091</v>
@@ -5353,10 +5354,10 @@
         <v>400098</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="P4" s="7">
         <v>3208362683</v>
@@ -5365,10 +5366,10 @@
         <v>400132</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="T4" s="7">
         <v>3004861490</v>
@@ -5394,10 +5395,10 @@
         <v>225</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C5" s="99" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D5" s="7">
         <v>3114813548</v>
@@ -5406,10 +5407,10 @@
         <v>700000</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5418,10 +5419,10 @@
         <v>700007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="L5" s="7">
         <v>3042122469</v>
@@ -5430,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="P5" s="7">
         <v>3006654770</v>
@@ -5442,10 +5443,10 @@
         <v>700019</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="T5" s="7">
         <v>3105871391</v>
@@ -5454,10 +5455,10 @@
         <v>700019</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="X5" s="8">
         <v>0</v>
@@ -5471,10 +5472,10 @@
         <v>224</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C6" s="99" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D6" s="7">
         <v>3008094051</v>
@@ -5495,10 +5496,10 @@
         <v>500033</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="L6" s="7">
         <v>3104029515</v>
@@ -5507,10 +5508,10 @@
         <v>500036</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="P6" s="7">
         <v>3176382335</v>
@@ -5531,10 +5532,10 @@
         <v>500021</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="X6" s="8">
         <v>3126468111</v>
@@ -5584,10 +5585,10 @@
         <v>106115</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="P7" s="7">
         <v>3006788177</v>
@@ -5625,10 +5626,10 @@
         <v>208</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>800</v>
-      </c>
-      <c r="C8" s="99" t="s">
-        <v>799</v>
+        <v>1099</v>
+      </c>
+      <c r="C8" s="161" t="s">
+        <v>1100</v>
       </c>
       <c r="D8" s="7">
         <v>3208655458</v>
@@ -5649,10 +5650,10 @@
         <v>518003</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="L8" s="7">
         <v>3138672918</v>
@@ -5661,10 +5662,10 @@
         <v>518008</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="P8" s="17">
         <v>3183293370</v>
@@ -5726,10 +5727,10 @@
         <v>800006</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="L9" s="7">
         <v>3142339664</v>
@@ -5750,10 +5751,10 @@
         <v>800001</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="T9" s="7">
         <v>3134054970</v>
@@ -5803,10 +5804,10 @@
         <v>600010</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L10" s="7">
         <v>3137215810</v>
@@ -5880,10 +5881,10 @@
         <v>816004</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="L11" s="7">
         <v>3203883225</v>
@@ -5892,10 +5893,10 @@
         <v>816034</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="P11" s="7">
         <v>3115591894</v>
@@ -5957,10 +5958,10 @@
         <v>824007</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="L12" s="7">
         <v>3107692014</v>
@@ -5969,10 +5970,10 @@
         <v>824013</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="P12" s="7">
         <v>3138214695</v>
@@ -5993,10 +5994,10 @@
         <v>824007</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="X12" s="7">
         <v>0</v>
@@ -6022,10 +6023,10 @@
         <v>200000</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="H13" s="7">
         <v>3154457243</v>
@@ -6034,10 +6035,10 @@
         <v>200022</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="L13" s="7">
         <v>3203411532</v>
@@ -6046,10 +6047,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="P13" s="17">
         <v>3147143576</v>
@@ -6087,10 +6088,10 @@
         <v>158</v>
       </c>
       <c r="B14" s="99" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C14" s="99" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
@@ -6111,10 +6112,10 @@
         <v>580008</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="L14" s="7">
         <v>3157523195</v>
@@ -6188,10 +6189,10 @@
         <v>446203</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="L15" s="7">
         <v>3217126120</v>
@@ -6200,10 +6201,10 @@
         <v>446219</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="P15" s="7">
         <v>3133858272</v>
@@ -6253,10 +6254,10 @@
         <v>469116</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="H16" s="7">
         <v>3008189568</v>
@@ -6265,10 +6266,10 @@
         <v>469108</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="L16" s="7">
         <v>3015596141</v>
@@ -6330,10 +6331,10 @@
         <v>141000</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H17" s="7">
         <v>3004700092</v>
@@ -6342,10 +6343,10 @@
         <v>141005</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="L17" s="7">
         <v>0</v>
@@ -6354,10 +6355,10 @@
         <v>141007</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="P17" s="7">
         <v>0</v>
@@ -6366,10 +6367,10 @@
         <v>141060</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="T17" s="8">
         <v>0</v>
@@ -6407,10 +6408,10 @@
         <v>831002</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="H18" s="7">
         <v>3142140856</v>
@@ -6419,10 +6420,10 @@
         <v>831014</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="L18" s="7">
         <v>3506257350</v>
@@ -6472,10 +6473,10 @@
         <v>119</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C19" s="99" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D19" s="7">
         <v>3108763114</v>
@@ -6484,10 +6485,10 @@
         <v>880008</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="H19" s="7">
         <v>3164263800</v>
@@ -6496,10 +6497,10 @@
         <v>880031</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="L19" s="7">
         <v>3138320988</v>
@@ -6520,10 +6521,10 @@
         <v>89</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="T19" s="7">
         <v>3168702215</v>
@@ -6532,10 +6533,10 @@
         <v>0</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="X19" s="7">
         <v>3164263800</v>
@@ -6573,10 +6574,10 @@
         <v>838108</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="L20" s="7">
         <v>3212653705</v>
@@ -6585,10 +6586,10 @@
         <v>838115</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="P20" s="7">
         <v>3123458681</v>
@@ -6609,10 +6610,10 @@
         <v>838019</v>
       </c>
       <c r="V20" s="9" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="W20" s="8" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="X20" s="7">
         <v>0</v>
@@ -6626,10 +6627,10 @@
         <v>111</v>
       </c>
       <c r="B21" s="99" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C21" s="99" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D21" s="7">
         <v>3182378854</v>
@@ -6650,10 +6651,10 @@
         <v>550022</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="L21" s="7">
         <v>3013413693</v>
@@ -6703,10 +6704,10 @@
         <v>110</v>
       </c>
       <c r="B22" s="99" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C22" s="99" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D22" s="7">
         <v>3183591042</v>
@@ -6727,10 +6728,10 @@
         <v>564123</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="L22" s="7">
         <v>3007265707</v>
@@ -6739,10 +6740,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="P22" s="7">
         <v>3004185904</v>
@@ -6804,10 +6805,10 @@
         <v>850017</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="L23" s="7">
         <v>3204336575</v>
@@ -6828,10 +6829,10 @@
         <v>850037</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="T23" s="8">
         <v>0</v>
@@ -6857,10 +6858,10 @@
         <v>96</v>
       </c>
       <c r="B24" s="99" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C24" s="99" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D24" s="7">
         <v>3012204226</v>
@@ -6869,10 +6870,10 @@
         <v>230015</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6881,10 +6882,10 @@
         <v>230036</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="L24" s="7">
         <v>3155181111</v>
@@ -6905,10 +6906,10 @@
         <v>89</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="T24" s="7">
         <v>3182472472</v>
@@ -6934,10 +6935,10 @@
         <v>93</v>
       </c>
       <c r="B25" s="99" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C25" s="99" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D25" s="7">
         <v>3153846141</v>
@@ -6958,10 +6959,10 @@
         <v>723034</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="L25" s="7">
         <v>3208149950</v>
@@ -6970,10 +6971,10 @@
         <v>723044</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="P25" s="17">
         <v>3006100055</v>
@@ -6982,10 +6983,10 @@
         <v>723018</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="T25" s="7">
         <v>3112951270</v>
@@ -7023,10 +7024,10 @@
         <v>870000</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="H26" s="7">
         <v>3203155868</v>
@@ -7047,10 +7048,10 @@
         <v>0</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="P26" s="7">
         <v>3137597117</v>
@@ -7112,10 +7113,10 @@
         <v>610022</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="L27" s="7">
         <v>3136567758</v>
@@ -7189,10 +7190,10 @@
         <v>645018</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="L28" s="7">
         <v>3105000056</v>
@@ -7201,10 +7202,10 @@
         <v>645013</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="P28" s="7">
         <v>3233447084</v>
@@ -7213,7 +7214,7 @@
         <v>645027</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="S28" s="16" t="s">
         <v>61</v>
@@ -7266,10 +7267,10 @@
         <v>864018</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="L29" s="7">
         <v>3174995882</v>
@@ -7278,10 +7279,10 @@
         <v>864051</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="P29" s="7">
         <v>0</v>
@@ -7302,10 +7303,10 @@
         <v>100101</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="W29" s="8" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="X29" s="14">
         <v>3172775037</v>
@@ -7343,10 +7344,10 @@
         <v>780060</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="L30" s="7">
         <v>3156778524</v>
@@ -7420,10 +7421,10 @@
         <v>405907</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="L31" s="7">
         <v>3113761635</v>
@@ -7432,10 +7433,10 @@
         <v>590014</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="P31" s="7">
         <v>3017719675</v>
@@ -7456,10 +7457,10 @@
         <v>590044</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="W31" s="8" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="X31" s="7">
         <v>3135555958</v>
@@ -7509,10 +7510,10 @@
         <v>0</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="P32" s="7">
         <v>3156060154</v>
@@ -7574,10 +7575,10 @@
         <v>260208</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="L33" s="7">
         <v>3013153074</v>
@@ -7586,10 +7587,10 @@
         <v>260213</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="P33" s="7">
         <v>3148917076</v>
@@ -7610,7 +7611,7 @@
         <v>260211</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="W33" s="8" t="s">
         <v>14</v>
@@ -7639,10 +7640,10 @@
         <v>897000</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H34" s="98">
         <v>3138512168</v>
@@ -7651,10 +7652,10 @@
         <v>897002</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="L34" s="7">
         <v>3107556983</v>
@@ -7687,10 +7688,10 @@
         <v>897016</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="W34" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="X34" s="7">
         <v>3138512168</v>
@@ -7728,10 +7729,10 @@
         <v>882002</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="L35" s="1">
         <v>3102530620</v>
@@ -7740,10 +7741,10 @@
         <v>882002</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="P35" s="1">
         <v>0</v>
@@ -7785,8 +7786,11 @@
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:M1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{9723AEF9-D6BD-487D-9BA2-6BA1537CB46D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="10" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7803,22 +7807,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="124" customWidth="1"/>
-    <col min="5" max="5" width="28.125" customWidth="1"/>
-    <col min="6" max="6" width="38.125" customWidth="1"/>
-    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="124" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1">
       <c r="A1" s="151" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B1" s="152"/>
       <c r="C1" s="152"/>
@@ -7835,89 +7839,89 @@
       <c r="A2" s="111"/>
       <c r="B2" s="112"/>
       <c r="C2" s="153" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D2" s="153"/>
       <c r="E2" s="153"/>
       <c r="F2" s="153" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G2" s="153"/>
       <c r="H2" s="153"/>
       <c r="I2" s="153" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J2" s="153"/>
       <c r="K2" s="153"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" customHeight="1">
       <c r="A3" s="113" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B3" s="113" t="s">
         <v>262</v>
       </c>
       <c r="C3" s="113" t="s">
+        <v>849</v>
+      </c>
+      <c r="D3" s="113" t="s">
+        <v>850</v>
+      </c>
+      <c r="E3" s="113" t="s">
         <v>851</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="F3" s="113" t="s">
         <v>852</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="G3" s="113" t="s">
+        <v>850</v>
+      </c>
+      <c r="H3" s="113" t="s">
+        <v>851</v>
+      </c>
+      <c r="I3" s="113" t="s">
         <v>853</v>
       </c>
-      <c r="F3" s="113" t="s">
-        <v>854</v>
-      </c>
-      <c r="G3" s="113" t="s">
-        <v>852</v>
-      </c>
-      <c r="H3" s="113" t="s">
-        <v>853</v>
-      </c>
-      <c r="I3" s="113" t="s">
-        <v>855</v>
-      </c>
       <c r="J3" s="113" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="K3" s="113" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="154" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B4" s="114" t="s">
         <v>482</v>
       </c>
       <c r="C4" s="115" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D4" s="116">
         <v>3115094374</v>
       </c>
       <c r="E4" s="117" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F4" s="118" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G4" s="119">
         <v>3002066495</v>
       </c>
       <c r="H4" s="120" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I4" s="118" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="J4" s="119">
         <v>3158587740</v>
       </c>
       <c r="K4" s="120" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -7926,31 +7930,31 @@
         <v>96</v>
       </c>
       <c r="C5" s="115" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D5" s="116">
         <v>3115094374</v>
       </c>
       <c r="E5" s="117" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F5" s="118" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G5" s="119">
         <v>3002066495</v>
       </c>
       <c r="H5" s="120" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I5" s="118" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="J5" s="119">
         <v>3158587740</v>
       </c>
       <c r="K5" s="120" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
@@ -7959,64 +7963,64 @@
         <v>192</v>
       </c>
       <c r="C6" s="115" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D6" s="116">
         <v>3114825596</v>
       </c>
       <c r="E6" s="117" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F6" s="118" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G6" s="119">
         <v>3133736829</v>
       </c>
       <c r="H6" s="120" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I6" s="118" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="J6" s="119">
         <v>3207353477</v>
       </c>
       <c r="K6" s="120" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="154"/>
       <c r="B7" s="114" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C7" s="115" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D7" s="116">
         <v>3114825596</v>
       </c>
       <c r="E7" s="117" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F7" s="118" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G7" s="119">
         <v>3133736829</v>
       </c>
       <c r="H7" s="120" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I7" s="118" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="J7" s="119">
         <v>3207353477</v>
       </c>
       <c r="K7" s="120" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
@@ -8025,31 +8029,31 @@
         <v>66</v>
       </c>
       <c r="C8" s="115" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D8" s="116">
         <v>3124800970</v>
       </c>
       <c r="E8" s="117" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F8" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G8" s="119">
         <v>3013906417</v>
       </c>
       <c r="H8" s="120" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I8" s="118" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="J8" s="119">
         <v>3183976311</v>
       </c>
       <c r="K8" s="120" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
@@ -8058,31 +8062,31 @@
         <v>21</v>
       </c>
       <c r="C9" s="115" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D9" s="116">
         <v>3124800970</v>
       </c>
       <c r="E9" s="117" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F9" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G9" s="119">
         <v>3013906417</v>
       </c>
       <c r="H9" s="120" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I9" s="118" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="J9" s="119">
         <v>3183976311</v>
       </c>
       <c r="K9" s="120" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
@@ -8091,31 +8095,31 @@
         <v>232</v>
       </c>
       <c r="C10" s="115" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D10" s="116">
         <v>3174705777</v>
       </c>
       <c r="E10" s="117" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F10" s="118" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G10" s="119">
         <v>3206039172</v>
       </c>
       <c r="H10" s="120" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I10" s="118" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J10" s="119">
         <v>3017160077</v>
       </c>
       <c r="K10" s="120" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
@@ -8124,66 +8128,66 @@
         <v>687</v>
       </c>
       <c r="C11" s="121" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D11" s="122">
         <v>3134968454</v>
       </c>
       <c r="E11" s="117" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F11" s="118" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G11" s="119">
         <v>3206039172</v>
       </c>
       <c r="H11" s="120" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I11" s="118" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J11" s="119">
         <v>3017160077</v>
       </c>
       <c r="K11" s="120" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="148" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B12" s="114" t="s">
         <v>172</v>
       </c>
       <c r="C12" s="115" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D12" s="116">
         <v>3004600370</v>
       </c>
       <c r="E12" s="117" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F12" s="123" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G12" s="119">
         <v>3214738835</v>
       </c>
       <c r="H12" s="120" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I12" s="118" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="J12" s="119">
         <v>3164990318</v>
       </c>
       <c r="K12" s="120" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8192,64 +8196,64 @@
         <v>778</v>
       </c>
       <c r="C13" s="115" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D13" s="116">
         <v>3004600370</v>
       </c>
       <c r="E13" s="117" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F13" s="123" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G13" s="119">
         <v>3214738835</v>
       </c>
       <c r="H13" s="120" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I13" s="118" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="J13" s="119">
         <v>3164990318</v>
       </c>
       <c r="K13" s="120" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="149"/>
       <c r="B14" s="114" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C14" s="115" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D14" s="116">
         <v>3015479457</v>
       </c>
       <c r="E14" s="117" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F14" s="123" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G14" s="119">
         <v>3102270608</v>
       </c>
       <c r="H14" s="120" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="I14" s="118" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="J14" s="119">
         <v>3007302139</v>
       </c>
       <c r="K14" s="120" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8258,31 +8262,31 @@
         <v>86</v>
       </c>
       <c r="C15" s="115" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D15" s="116">
         <v>3015479457</v>
       </c>
       <c r="E15" s="117" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F15" s="123" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G15" s="119">
         <v>3102270608</v>
       </c>
       <c r="H15" s="120" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="I15" s="118" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="J15" s="119">
         <v>3007302139</v>
       </c>
       <c r="K15" s="120" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8291,64 +8295,64 @@
         <v>225</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D16" s="116">
         <v>3153809760</v>
       </c>
       <c r="E16" s="117" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F16" s="123" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G16" s="119">
         <v>3113804653</v>
       </c>
       <c r="H16" s="120" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I16" s="118" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="J16" s="119">
         <v>3202637252</v>
       </c>
       <c r="K16" s="120" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="149"/>
       <c r="B17" s="114" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C17" s="115" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D17" s="116">
         <v>3153809760</v>
       </c>
       <c r="E17" s="117" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F17" s="123" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G17" s="119">
         <v>3113804653</v>
       </c>
       <c r="H17" s="120" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I17" s="118" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="J17" s="119">
         <v>3202637252</v>
       </c>
       <c r="K17" s="120" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8357,31 +8361,31 @@
         <v>13</v>
       </c>
       <c r="C18" s="115" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D18" s="116">
         <v>3153809760</v>
       </c>
       <c r="E18" s="117" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F18" s="123" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G18" s="119">
         <v>3113804653</v>
       </c>
       <c r="H18" s="120" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I18" s="118" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="J18" s="119">
         <v>3202637252</v>
       </c>
       <c r="K18" s="120" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8390,31 +8394,31 @@
         <v>237</v>
       </c>
       <c r="C19" s="115" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D19" s="116">
         <v>3112432920</v>
       </c>
       <c r="E19" s="117" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F19" s="123" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G19" s="119">
         <v>3194882873</v>
       </c>
       <c r="H19" s="120" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="I19" s="118" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="J19" s="119">
         <v>3205728857</v>
       </c>
       <c r="K19" s="120" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -8423,66 +8427,66 @@
         <v>119</v>
       </c>
       <c r="C20" s="115" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D20" s="116">
         <v>3112432920</v>
       </c>
       <c r="E20" s="117" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F20" s="123" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G20" s="119">
         <v>3194882873</v>
       </c>
       <c r="H20" s="120" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="I20" s="118" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="J20" s="119">
         <v>3205728857</v>
       </c>
       <c r="K20" s="120" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="148" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B21" s="114" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C21" s="115" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D21" s="116">
         <v>3164496339</v>
       </c>
       <c r="E21" s="117" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F21" s="118" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G21" s="119">
         <v>3176371349</v>
       </c>
       <c r="H21" s="120" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="I21" s="118" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J21" s="119">
         <v>3127629191</v>
       </c>
       <c r="K21" s="120" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -8491,64 +8495,64 @@
         <v>40</v>
       </c>
       <c r="C22" s="115" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D22" s="116">
         <v>3164496339</v>
       </c>
       <c r="E22" s="117" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F22" s="118" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G22" s="119">
         <v>3176371349</v>
       </c>
       <c r="H22" s="120" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="I22" s="118" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J22" s="119">
         <v>3127629191</v>
       </c>
       <c r="K22" s="120" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="149"/>
       <c r="B23" s="114" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C23" s="115" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D23" s="116">
         <v>3202487794</v>
       </c>
       <c r="E23" s="117" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F23" s="118" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G23" s="119">
         <v>3002968179</v>
       </c>
       <c r="H23" s="120" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="I23" s="118" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J23" s="119">
         <v>3183981171</v>
       </c>
       <c r="K23" s="120" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -8557,31 +8561,31 @@
         <v>58</v>
       </c>
       <c r="C24" s="115" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D24" s="116">
         <v>3202487794</v>
       </c>
       <c r="E24" s="117" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F24" s="118" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G24" s="119">
         <v>3002968179</v>
       </c>
       <c r="H24" s="120" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="I24" s="118" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J24" s="119">
         <v>3183981171</v>
       </c>
       <c r="K24" s="120" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -8590,64 +8594,64 @@
         <v>224</v>
       </c>
       <c r="C25" s="115" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D25" s="116">
         <v>3174705777</v>
       </c>
       <c r="E25" s="117" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F25" s="123" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G25" s="119">
         <v>3138907694</v>
       </c>
       <c r="H25" s="120" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I25" s="118" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="J25" s="119">
         <v>3168671828</v>
       </c>
       <c r="K25" s="120" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="149"/>
       <c r="B26" s="114" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C26" s="115" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D26" s="116">
         <v>3006772835</v>
       </c>
       <c r="E26" s="117" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F26" s="123" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G26" s="119">
         <v>3138907694</v>
       </c>
       <c r="H26" s="120" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I26" s="118" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="J26" s="119">
         <v>3168671828</v>
       </c>
       <c r="K26" s="120" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -8656,31 +8660,31 @@
         <v>158</v>
       </c>
       <c r="C27" s="115" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D27" s="116">
         <v>3006771287</v>
       </c>
       <c r="E27" s="117" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F27" s="123" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G27" s="119">
         <v>3042085935</v>
       </c>
       <c r="H27" s="120" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I27" s="118" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="J27" s="119">
         <v>3177723632</v>
       </c>
       <c r="K27" s="120" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -8689,66 +8693,66 @@
         <v>110</v>
       </c>
       <c r="C28" s="115" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D28" s="116">
         <v>3006771287</v>
       </c>
       <c r="E28" s="117" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F28" s="123" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G28" s="119">
         <v>3042085935</v>
       </c>
       <c r="H28" s="120" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I28" s="118" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="J28" s="119">
         <v>3177723632</v>
       </c>
       <c r="K28" s="120" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="148" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B29" s="114" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="115" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D29" s="116">
         <v>3006772835</v>
       </c>
       <c r="E29" s="117" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F29" s="118" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G29" s="119">
         <v>3006165322</v>
       </c>
       <c r="H29" s="120" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I29" s="118" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="J29" s="119">
         <v>3005581875</v>
       </c>
       <c r="K29" s="120" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -8757,64 +8761,64 @@
         <v>33</v>
       </c>
       <c r="C30" s="115" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D30" s="116">
         <v>3004600370</v>
       </c>
       <c r="E30" s="117" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F30" s="118" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G30" s="119">
         <v>3006165322</v>
       </c>
       <c r="H30" s="120" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I30" s="118" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="J30" s="119">
         <v>3005581875</v>
       </c>
       <c r="K30" s="120" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="149"/>
       <c r="B31" s="114" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C31" s="115" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D31" s="116">
         <v>3183743217</v>
       </c>
       <c r="E31" s="117" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F31" s="123" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G31" s="119">
         <v>3006316449</v>
       </c>
       <c r="H31" s="120" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="I31" s="118" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J31" s="119">
         <v>3013375191</v>
       </c>
       <c r="K31" s="120" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -8823,31 +8827,31 @@
         <v>668</v>
       </c>
       <c r="C32" s="115" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D32" s="116">
         <v>3183743217</v>
       </c>
       <c r="E32" s="117" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F32" s="123" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G32" s="119">
         <v>3006316449</v>
       </c>
       <c r="H32" s="120" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="I32" s="118" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J32" s="119">
         <v>3013375191</v>
       </c>
       <c r="K32" s="120" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -8856,31 +8860,31 @@
         <v>118</v>
       </c>
       <c r="C33" s="115" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D33" s="116">
         <v>3134473698</v>
       </c>
       <c r="E33" s="117" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F33" s="123" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G33" s="119">
         <v>3106449213</v>
       </c>
       <c r="H33" s="120" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="I33" s="118" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="J33" s="119">
         <v>3116008017</v>
       </c>
       <c r="K33" s="120" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -8889,64 +8893,64 @@
         <v>103</v>
       </c>
       <c r="C34" s="115" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D34" s="116">
         <v>3134473698</v>
       </c>
       <c r="E34" s="117" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F34" s="123" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G34" s="119">
         <v>3106449213</v>
       </c>
       <c r="H34" s="120" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="I34" s="118" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="J34" s="119">
         <v>3116008017</v>
       </c>
       <c r="K34" s="120" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="149"/>
       <c r="B35" s="114" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C35" s="115" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D35" s="116">
         <v>3006771287</v>
       </c>
       <c r="E35" s="117" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F35" s="123" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G35" s="119">
         <v>3183058675</v>
       </c>
       <c r="H35" s="120" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="I35" s="118" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="J35" s="119">
         <v>3103065811</v>
       </c>
       <c r="K35" s="120" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -8955,31 +8959,31 @@
         <v>131</v>
       </c>
       <c r="C36" s="115" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D36" s="116">
         <v>3202487794</v>
       </c>
       <c r="E36" s="117" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F36" s="123" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G36" s="119">
         <v>3183058675</v>
       </c>
       <c r="H36" s="120" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="I36" s="118" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="J36" s="119">
         <v>3103065811</v>
       </c>
       <c r="K36" s="120" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -9112,77 +9116,77 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="117" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="117" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="117" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="117" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="117" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="117" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="117" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="117" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="117" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="117" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="117" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="117" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="117" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="117" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="117" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
   </sheetData>
@@ -9218,25 +9222,25 @@
       <selection pane="bottomRight" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.25" style="79" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="79" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="64" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="64" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="41.625" style="64" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="79" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="79" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="64" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" style="64" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="64" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="64" customWidth="1"/>
-    <col min="8" max="8" width="34.625" style="64" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="64"/>
-    <col min="10" max="11" width="16.625" style="65" customWidth="1"/>
-    <col min="12" max="12" width="65.375" style="65" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.625" style="66" customWidth="1"/>
-    <col min="14" max="16" width="16.625" style="65" customWidth="1"/>
-    <col min="17" max="17" width="35.375" style="64" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="64" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="64"/>
+    <col min="10" max="11" width="16.5703125" style="65" customWidth="1"/>
+    <col min="12" max="12" width="65.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="66" customWidth="1"/>
+    <col min="14" max="16" width="16.5703125" style="65" customWidth="1"/>
+    <col min="17" max="17" width="35.42578125" style="64" customWidth="1"/>
     <col min="18" max="18" width="40" style="64" customWidth="1"/>
-    <col min="19" max="19" width="25.375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="11.375" style="28"/>
+    <col min="19" max="19" width="25.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="60">
@@ -10698,7 +10702,7 @@
         <v>800006</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" ht="30">
       <c r="A26" s="29" t="s">
         <v>415</v>
       </c>
@@ -10757,7 +10761,7 @@
         <v>800006</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="47" customFormat="1" ht="60">
+    <row r="27" spans="1:19" s="47" customFormat="1" ht="75">
       <c r="A27" s="29" t="s">
         <v>415</v>
       </c>
@@ -15118,8 +15122,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="69.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
@@ -15315,7 +15319,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="75.75" customWidth="1"/>
+    <col min="1" max="1" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18">
@@ -15370,7 +15374,7 @@
     </row>
     <row r="11" spans="1:1" ht="18">
       <c r="A11" s="20" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -15389,23 +15393,23 @@
       <selection activeCell="A8" sqref="A8:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="31.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="31.5"/>
   <cols>
-    <col min="1" max="1" width="1.25" style="102" customWidth="1"/>
-    <col min="2" max="2" width="30.75" style="108" customWidth="1"/>
-    <col min="3" max="3" width="26.875" style="102" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="102" customWidth="1"/>
-    <col min="5" max="5" width="32.875" style="102" customWidth="1"/>
-    <col min="6" max="6" width="23.75" style="102" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="102" customWidth="1"/>
-    <col min="8" max="8" width="22.125" style="102" customWidth="1"/>
-    <col min="9" max="16384" width="11.375" style="102"/>
+    <col min="1" max="1" width="1.28515625" style="102" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="108" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="102" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="102" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" style="102" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="102" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" style="102" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="102" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="102"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" thickBot="1">
       <c r="A1" s="101"/>
       <c r="B1" s="158" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C1" s="159"/>
       <c r="D1" s="159"/>
@@ -15420,19 +15424,19 @@
         <v>262</v>
       </c>
       <c r="C2" s="109" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D2" s="109" t="s">
         <v>281</v>
       </c>
       <c r="E2" s="109" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F2" s="110" t="s">
         <v>281</v>
       </c>
       <c r="G2" s="109" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="H2" s="110" t="s">
         <v>281</v>
@@ -15443,11 +15447,11 @@
         <v>232</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D3" s="105"/>
       <c r="E3" s="105" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F3" s="105"/>
       <c r="G3" s="105"/>
@@ -15458,11 +15462,11 @@
         <v>224</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D4" s="105"/>
       <c r="E4" s="105" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F4" s="105"/>
       <c r="G4" s="106"/>
@@ -15470,10 +15474,10 @@
     </row>
     <row r="5" spans="1:8" ht="64.5" customHeight="1">
       <c r="B5" s="106" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C5" s="105" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D5" s="105"/>
       <c r="E5" s="105"/>
@@ -15486,15 +15490,15 @@
         <v>21</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D6" s="105"/>
       <c r="E6" s="106" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F6" s="105"/>
       <c r="G6" s="105" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="H6" s="105"/>
     </row>
